--- a/kreditiMoznosti.xlsx
+++ b/kreditiMoznosti.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{03FF2672-A25F-447D-AA2F-9916E5F6A348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29385224-12B9-4F5B-A2FF-71979C756F33}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{A1E0F002-7CA8-42AD-8F87-C9D1AFDCF651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AF5DDFF-D6F4-4327-B86C-94AA57F51B94}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="36">
   <si>
     <t>Банка</t>
   </si>
@@ -108,16 +108,6 @@
   </si>
   <si>
     <t>МКД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
-20г. на МКДот на аплицирање
-67г. на МКДот на достасување
-Вид и висина на избрана референтна каматна стапка/индекс
-каматна стапка на благајнички записи
-5.55%
-административен трошок 1000мкд
-</t>
   </si>
   <si>
     <t xml:space="preserve">потрошувачки кредит обезбеМКД со депозит со животно осигурување
@@ -595,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -643,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>6</v>
@@ -658,50 +648,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="4">
-        <v>300000</v>
-      </c>
-      <c r="I2" s="3">
-        <v>72</v>
-      </c>
-      <c r="J2" s="3">
-        <v>12.89</v>
-      </c>
-      <c r="K2" s="3">
-        <v>13.82</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -734,7 +690,7 @@
         <v>2.02</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>18</v>
@@ -742,7 +698,7 @@
     </row>
     <row r="4" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -775,7 +731,7 @@
         <v>13.82</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>18</v>
@@ -783,7 +739,7 @@
     </row>
     <row r="5" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -816,7 +772,7 @@
         <v>2.02</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>18</v>
@@ -824,7 +780,7 @@
     </row>
     <row r="6" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -857,7 +813,7 @@
         <v>9.33</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>18</v>
@@ -865,7 +821,7 @@
     </row>
     <row r="7" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -898,7 +854,7 @@
         <v>9.27</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>18</v>
@@ -906,7 +862,7 @@
     </row>
     <row r="8" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -939,7 +895,7 @@
         <v>10.09</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>18</v>
@@ -947,7 +903,7 @@
     </row>
     <row r="9" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -980,7 +936,7 @@
         <v>10.029999999999999</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>18</v>
@@ -988,7 +944,7 @@
     </row>
     <row r="10" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -1021,7 +977,7 @@
         <v>2.02</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>18</v>
@@ -1029,7 +985,7 @@
     </row>
     <row r="11" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -1062,7 +1018,7 @@
         <v>2.13</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>18</v>
@@ -1070,7 +1026,7 @@
     </row>
     <row r="12" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -1100,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>18</v>
@@ -1108,7 +1064,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -1146,7 +1102,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1184,7 +1140,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
